--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A0823-692A-43E3-BE6C-65C1FB2DD09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471809B-6460-479B-890A-A138925DE18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L107"/>
+  <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
@@ -919,22 +919,6 @@
         <f>COUNTIF($K:$K,E2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="1">
-        <f>COUNTIF(E:E,K2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -953,22 +937,6 @@
         <f>COUNTIF($K:$K,E3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="1">
-        <f>COUNTIF(E:E,K3)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -987,22 +955,6 @@
         <f>COUNTIF($K:$K,E4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="1">
-        <f>COUNTIF(E:E,K4)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H5" s="1" t="s">
@@ -1015,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L5" s="1">
         <f>COUNTIF(E:E,K5)</f>
@@ -1033,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1">
         <f>COUNTIF(E:E,K6)</f>
@@ -1051,7 +1003,7 @@
         <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1">
         <f>COUNTIF(E:E,K7)</f>
@@ -1069,7 +1021,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1">
         <f>COUNTIF(E:E,K8)</f>
@@ -1078,7 +1030,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H9" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>34</v>
@@ -1087,7 +1039,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1">
         <f>COUNTIF(E:E,K9)</f>
@@ -1095,24 +1047,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1">
-        <f>COUNTIF($K:$K,E10)</f>
-        <v>1</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>34</v>
@@ -1121,32 +1057,16 @@
         <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="L10" s="1">
         <f>COUNTIF(E:E,K10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
-        <f>COUNTIF($K:$K,E11)</f>
-        <v>1</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>34</v>
@@ -1155,16 +1075,16 @@
         <v>31</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1">
         <f>COUNTIF(E:E,K11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>34</v>
@@ -1173,7 +1093,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L12" s="1">
         <f>COUNTIF(E:E,K12)</f>
@@ -1181,8 +1101,24 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1">
+        <f>COUNTIF($K:$K,E13)</f>
+        <v>1</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>34</v>
@@ -1191,16 +1127,32 @@
         <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1">
         <f>COUNTIF(E:E,K13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <f>COUNTIF($K:$K,E14)</f>
+        <v>1</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>34</v>
@@ -1209,11 +1161,11 @@
         <v>31</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1">
         <f>COUNTIF(E:E,K14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
@@ -1221,13 +1173,13 @@
         <v>98</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1">
         <f>COUNTIF(E:E,K15)</f>
@@ -1235,24 +1187,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1">
-        <f>COUNTIF($K:$K,E16)</f>
-        <v>0</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>34</v>
@@ -1261,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1">
         <f>COUNTIF(E:E,K16)</f>
@@ -1269,24 +1205,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1">
-        <f>COUNTIF($K:$K,E17)</f>
-        <v>0</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>34</v>
@@ -1295,7 +1215,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L17" s="1">
         <f>COUNTIF(E:E,K17)</f>
@@ -1303,33 +1223,17 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="1">
-        <f>COUNTIF($K:$K,E18)</f>
-        <v>0</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L18" s="1">
         <f>COUNTIF(E:E,K18)</f>
@@ -1338,7 +1242,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>34</v>
@@ -1347,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" s="1">
         <f>COUNTIF(E:E,K19)</f>
@@ -1356,16 +1260,16 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L20" s="1">
         <f>COUNTIF(E:E,K20)</f>
@@ -1374,7 +1278,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>34</v>
@@ -1383,7 +1287,7 @@
         <v>31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L21" s="1">
         <f>COUNTIF(E:E,K21)</f>
@@ -1392,7 +1296,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>34</v>
@@ -1401,23 +1305,23 @@
         <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
         <f>COUNTIF($K:$K,E22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L22" s="1">
         <f>COUNTIF(E:E,K22)</f>
@@ -1425,24 +1329,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1">
-        <f>COUNTIF($K:$K,E23)</f>
-        <v>1</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>30</v>
@@ -1451,7 +1339,7 @@
         <v>31</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L23" s="1">
         <f>COUNTIF(E:E,K23)</f>
@@ -1459,24 +1347,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1">
-        <f>COUNTIF($K:$K,E24)</f>
-        <v>0</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>34</v>
@@ -1485,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L24" s="1">
         <f>COUNTIF(E:E,K24)</f>
@@ -1494,7 +1366,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
@@ -1503,32 +1375,16 @@
         <v>31</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1">
         <f>COUNTIF($K:$K,E25)</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="1">
-        <f>COUNTIF(E:E,K25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1537,26 +1393,10 @@
         <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1">
         <f>COUNTIF($K:$K,E26)</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="1">
-        <f>COUNTIF(E:E,K26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1571,14 +1411,14 @@
         <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1">
         <f>COUNTIF($K:$K,E27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>34</v>
@@ -1587,11 +1427,11 @@
         <v>31</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="L27" s="1">
         <f>COUNTIF(E:E,K27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
@@ -1605,14 +1445,14 @@
         <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F28" s="1">
         <f>COUNTIF($K:$K,E28)</f>
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>34</v>
@@ -1621,11 +1461,11 @@
         <v>31</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="L28" s="1">
         <f>COUNTIF(E:E,K28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.15">
@@ -1639,14 +1479,14 @@
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" s="1">
         <f>COUNTIF($K:$K,E29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>34</v>
@@ -1655,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L29" s="1">
         <f>COUNTIF(E:E,K29)</f>
@@ -1673,14 +1513,14 @@
         <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1">
         <f>COUNTIF($K:$K,E30)</f>
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>34</v>
@@ -1689,7 +1529,7 @@
         <v>31</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1">
         <f>COUNTIF(E:E,K30)</f>
@@ -1714,16 +1554,16 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L31" s="1">
         <f>COUNTIF(E:E,K31)</f>
@@ -1748,16 +1588,16 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L32" s="1">
         <f>COUNTIF(E:E,K32)</f>
@@ -1782,16 +1622,16 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1">
         <f>COUNTIF(E:E,K33)</f>
@@ -1803,33 +1643,33 @@
         <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1">
         <f>COUNTIF($K:$K,E34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="L34" s="1">
         <f>COUNTIF(E:E,K34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
@@ -1843,11 +1683,11 @@
         <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1">
         <f>COUNTIF($K:$K,E35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>120</v>
@@ -1859,11 +1699,11 @@
         <v>31</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L35" s="1">
         <f>COUNTIF(E:E,K35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
@@ -1877,7 +1717,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1">
         <f>COUNTIF($K:$K,E36)</f>
@@ -1887,13 +1727,13 @@
         <v>120</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L36" s="1">
         <f>COUNTIF(E:E,K36)</f>
@@ -1911,11 +1751,11 @@
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1">
         <f>COUNTIF($K:$K,E37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>120</v>
@@ -1927,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L37" s="1">
         <f>COUNTIF(E:E,K37)</f>
@@ -1945,7 +1785,7 @@
         <v>31</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="1">
         <f>COUNTIF($K:$K,E38)</f>
@@ -1961,7 +1801,7 @@
         <v>31</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L38" s="1">
         <f>COUNTIF(E:E,K38)</f>
@@ -1979,26 +1819,10 @@
         <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1">
         <f>COUNTIF($K:$K,E39)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="1">
-        <f>COUNTIF(E:E,K39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2013,27 +1837,11 @@
         <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F40" s="1">
         <f>COUNTIF($K:$K,E40)</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="1">
-        <f>COUNTIF(E:E,K40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
@@ -2047,27 +1855,11 @@
         <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F41" s="1">
         <f>COUNTIF($K:$K,E41)</f>
         <v>0</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="1">
-        <f>COUNTIF(E:E,K41)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
@@ -2081,27 +1873,11 @@
         <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1">
         <f>COUNTIF($K:$K,E42)</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="1">
-        <f>COUNTIF(E:E,K42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
@@ -2109,33 +1885,17 @@
         <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1">
         <f>COUNTIF($K:$K,E43)</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" s="1">
-        <f>COUNTIF(E:E,K43)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
@@ -2155,22 +1915,6 @@
         <f>COUNTIF($K:$K,E44)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L44" s="1">
-        <f>COUNTIF(E:E,K44)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
@@ -2189,22 +1933,6 @@
         <f>COUNTIF($K:$K,E45)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L45" s="1">
-        <f>COUNTIF(E:E,K45)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H46" s="1" t="s">
@@ -2217,11 +1945,11 @@
         <v>31</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="L46" s="1">
         <f>COUNTIF(E:E,K46)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
@@ -2229,22 +1957,38 @@
         <v>120</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="L47" s="1">
         <f>COUNTIF(E:E,K47)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <f>COUNTIF($K:$K,E48)</f>
+        <v>1</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>34</v>
@@ -2253,16 +1997,32 @@
         <v>31</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="L48" s="1">
         <f>COUNTIF(E:E,K48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
+        <f>COUNTIF($K:$K,E49)</f>
+        <v>1</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>34</v>
@@ -2271,16 +2031,32 @@
         <v>31</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="L49" s="1">
         <f>COUNTIF(E:E,K49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="1">
+        <f>COUNTIF($K:$K,E50)</f>
+        <v>1</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>34</v>
@@ -2289,16 +2065,32 @@
         <v>31</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="L50" s="1">
         <f>COUNTIF(E:E,K50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="1">
+        <f>COUNTIF($K:$K,E51)</f>
+        <v>1</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>34</v>
@@ -2307,43 +2099,43 @@
         <v>31</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="L51" s="1">
         <f>COUNTIF(E:E,K51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L52" s="1">
-        <f>COUNTIF(E:E,K52)</f>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="1">
+        <f>COUNTIF($K:$K,E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H53" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L53" s="1">
         <f>COUNTIF(E:E,K53)</f>
@@ -2352,7 +2144,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H54" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>30</v>
@@ -2361,7 +2153,7 @@
         <v>31</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="L54" s="1">
         <f>COUNTIF(E:E,K54)</f>
@@ -2370,7 +2162,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H55" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>34</v>
@@ -2379,7 +2171,7 @@
         <v>31</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="L55" s="1">
         <f>COUNTIF(E:E,K55)</f>
@@ -2388,16 +2180,16 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="L56" s="1">
         <f>COUNTIF(E:E,K56)</f>
@@ -2406,16 +2198,16 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L57" s="1">
         <f>COUNTIF(E:E,K57)</f>
@@ -2423,24 +2215,8 @@
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="1">
-        <f>COUNTIF($K:$K,E58)</f>
-        <v>1</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>34</v>
@@ -2449,32 +2225,16 @@
         <v>31</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="L58" s="1">
         <f>COUNTIF(E:E,K58)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="1">
-        <f>COUNTIF($K:$K,E59)</f>
-        <v>1</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>34</v>
@@ -2483,32 +2243,16 @@
         <v>31</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="L59" s="1">
         <f>COUNTIF(E:E,K59)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="1">
-        <f>COUNTIF($K:$K,E60)</f>
-        <v>1</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>34</v>
@@ -2517,32 +2261,16 @@
         <v>31</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L60" s="1">
         <f>COUNTIF(E:E,K60)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="1">
-        <f>COUNTIF($K:$K,E61)</f>
-        <v>1</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>34</v>
@@ -2551,32 +2279,16 @@
         <v>31</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="L61" s="1">
         <f>COUNTIF(E:E,K61)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="1">
-        <f>COUNTIF($K:$K,E62)</f>
-        <v>1</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>34</v>
@@ -2585,32 +2297,16 @@
         <v>31</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L62" s="1">
         <f>COUNTIF(E:E,K62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="1">
-        <f>COUNTIF($K:$K,E63)</f>
-        <v>1</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>34</v>
@@ -2619,32 +2315,16 @@
         <v>31</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="L63" s="1">
         <f>COUNTIF(E:E,K63)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="1">
-        <f>COUNTIF($K:$K,E64)</f>
-        <v>1</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>34</v>
@@ -2653,32 +2333,16 @@
         <v>31</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="L64" s="1">
         <f>COUNTIF(E:E,K64)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="1">
-        <f>COUNTIF($K:$K,E65)</f>
-        <v>1</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>34</v>
@@ -2687,32 +2351,16 @@
         <v>31</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="L65" s="1">
         <f>COUNTIF(E:E,K65)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="1">
-        <f>COUNTIF($K:$K,E66)</f>
-        <v>0</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>34</v>
@@ -2721,7 +2369,7 @@
         <v>31</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L66" s="1">
         <f>COUNTIF(E:E,K66)</f>
@@ -2730,16 +2378,16 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H67" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L67" s="1">
         <f>COUNTIF(E:E,K67)</f>
@@ -2748,7 +2396,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H68" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>34</v>
@@ -2757,7 +2405,7 @@
         <v>31</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L68" s="1">
         <f>COUNTIF(E:E,K68)</f>
@@ -2766,16 +2414,16 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H69" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L69" s="1">
         <f>COUNTIF(E:E,K69)</f>
@@ -2784,16 +2432,16 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H70" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L70" s="1">
         <f>COUNTIF(E:E,K70)</f>
@@ -2801,6 +2449,22 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="1">
+        <f>COUNTIF($K:$K,E71)</f>
+        <v>1</v>
+      </c>
       <c r="H71" s="1" t="s">
         <v>136</v>
       </c>
@@ -2811,14 +2475,30 @@
         <v>31</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="L71" s="1">
         <f>COUNTIF(E:E,K71)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="1">
+        <f>COUNTIF($K:$K,E72)</f>
+        <v>1</v>
+      </c>
       <c r="H72" s="1" t="s">
         <v>136</v>
       </c>
@@ -2829,14 +2509,30 @@
         <v>31</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="L72" s="1">
         <f>COUNTIF(E:E,K72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="1">
+        <f>COUNTIF($K:$K,E73)</f>
+        <v>1</v>
+      </c>
       <c r="H73" s="1" t="s">
         <v>136</v>
       </c>
@@ -2847,14 +2543,30 @@
         <v>31</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="L73" s="1">
         <f>COUNTIF(E:E,K73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="1">
+        <f>COUNTIF($K:$K,E74)</f>
+        <v>1</v>
+      </c>
       <c r="H74" s="1" t="s">
         <v>136</v>
       </c>
@@ -2865,14 +2577,30 @@
         <v>31</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="L74" s="1">
         <f>COUNTIF(E:E,K74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="1">
+        <f>COUNTIF($K:$K,E75)</f>
+        <v>1</v>
+      </c>
       <c r="H75" s="1" t="s">
         <v>136</v>
       </c>
@@ -2883,14 +2611,30 @@
         <v>31</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="L75" s="1">
         <f>COUNTIF(E:E,K75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="1">
+        <f>COUNTIF($K:$K,E76)</f>
+        <v>1</v>
+      </c>
       <c r="H76" s="1" t="s">
         <v>136</v>
       </c>
@@ -2901,14 +2645,30 @@
         <v>31</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="L76" s="1">
         <f>COUNTIF(E:E,K76)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="1">
+        <f>COUNTIF($K:$K,E77)</f>
+        <v>1</v>
+      </c>
       <c r="H77" s="1" t="s">
         <v>136</v>
       </c>
@@ -2919,14 +2679,30 @@
         <v>31</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="L77" s="1">
         <f>COUNTIF(E:E,K77)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="1">
+        <f>COUNTIF($K:$K,E78)</f>
+        <v>1</v>
+      </c>
       <c r="H78" s="1" t="s">
         <v>136</v>
       </c>
@@ -2937,28 +2713,28 @@
         <v>31</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="L78" s="1">
         <f>COUNTIF(E:E,K78)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L79" s="1">
-        <f>COUNTIF(E:E,K79)</f>
+      <c r="B79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="1">
+        <f>COUNTIF($K:$K,E79)</f>
         <v>0</v>
       </c>
     </row>
@@ -2973,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L80" s="1">
         <f>COUNTIF(E:E,K80)</f>
@@ -2991,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L81" s="1">
         <f>COUNTIF(E:E,K81)</f>
@@ -3009,7 +2785,7 @@
         <v>31</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L82" s="1">
         <f>COUNTIF(E:E,K82)</f>
@@ -3027,7 +2803,7 @@
         <v>31</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L83" s="1">
         <f>COUNTIF(E:E,K83)</f>
@@ -3045,7 +2821,7 @@
         <v>31</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L84" s="1">
         <f>COUNTIF(E:E,K84)</f>
@@ -3063,7 +2839,7 @@
         <v>31</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L85" s="1">
         <f>COUNTIF(E:E,K85)</f>
@@ -3081,7 +2857,7 @@
         <v>31</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L86" s="1">
         <f>COUNTIF(E:E,K86)</f>
@@ -3099,7 +2875,7 @@
         <v>31</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L87" s="1">
         <f>COUNTIF(E:E,K87)</f>
@@ -3117,7 +2893,7 @@
         <v>31</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L88" s="1">
         <f>COUNTIF(E:E,K88)</f>
@@ -3135,7 +2911,7 @@
         <v>31</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L89" s="1">
         <f>COUNTIF(E:E,K89)</f>
@@ -3153,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L90" s="1">
         <f>COUNTIF(E:E,K90)</f>
@@ -3171,7 +2947,7 @@
         <v>31</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="L91" s="1">
         <f>COUNTIF(E:E,K91)</f>
@@ -3189,7 +2965,7 @@
         <v>31</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L92" s="1">
         <f>COUNTIF(E:E,K92)</f>
@@ -3207,7 +2983,7 @@
         <v>31</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L93" s="1">
         <f>COUNTIF(E:E,K93)</f>
@@ -3225,7 +3001,7 @@
         <v>31</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L94" s="1">
         <f>COUNTIF(E:E,K94)</f>
@@ -3243,7 +3019,7 @@
         <v>31</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L95" s="1">
         <f>COUNTIF(E:E,K95)</f>
@@ -3261,14 +3037,14 @@
         <v>31</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L96" s="1">
         <f>COUNTIF(E:E,K96)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H97" s="1" t="s">
         <v>136</v>
       </c>
@@ -3279,14 +3055,14 @@
         <v>31</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="L97" s="1">
         <f>COUNTIF(E:E,K97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H98" s="1" t="s">
         <v>136</v>
       </c>
@@ -3297,192 +3073,160 @@
         <v>31</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L98" s="1">
         <f>COUNTIF(E:E,K98)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F99" s="1">
-        <f>COUNTIF($K:$K,E99)</f>
-        <v>0</v>
-      </c>
+    <row r="99" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H99" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="L99" s="1">
         <f>COUNTIF(E:E,K99)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F100" s="1">
-        <f>COUNTIF($K:$K,E100)</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H100" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L100" s="1">
         <f>COUNTIF(E:E,K100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F101" s="1">
-        <f>COUNTIF($K:$K,E101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" s="1">
-        <f>COUNTIF($K:$K,E102)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="1">
-        <f>COUNTIF($K:$K,E103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F104" s="1">
-        <f>COUNTIF($K:$K,E104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F105" s="1">
-        <f>COUNTIF($K:$K,E105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="1">
-        <f>COUNTIF($K:$K,E106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L101" s="1">
+        <f>COUNTIF(E:E,K101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L102" s="1">
+        <f>COUNTIF(E:E,K102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L103" s="1">
+        <f>COUNTIF(E:E,K103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L104" s="1">
+        <f>COUNTIF(E:E,K104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L105" s="1">
+        <f>COUNTIF(E:E,K105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L106" s="1">
+        <f>COUNTIF(E:E,K106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H107" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>34</v>
@@ -3491,10 +3235,296 @@
         <v>31</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L107" s="1">
         <f>COUNTIF(E:E,K107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L108" s="1">
+        <f>COUNTIF(E:E,K108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L109" s="1">
+        <f>COUNTIF(E:E,K109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L110" s="1">
+        <f>COUNTIF(E:E,K110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L111" s="1">
+        <f>COUNTIF(E:E,K111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L112" s="1">
+        <f>COUNTIF(E:E,K112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L113" s="1">
+        <f>COUNTIF(E:E,K113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="1">
+        <f>COUNTIF($K:$K,E114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F115" s="1">
+        <f>COUNTIF($K:$K,E115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F116" s="1">
+        <f>COUNTIF($K:$K,E116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F117" s="1">
+        <f>COUNTIF($K:$K,E117)</f>
+        <v>1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L117" s="1">
+        <f>COUNTIF(E:E,K117)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F118" s="1">
+        <f>COUNTIF($K:$K,E118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="1">
+        <f>COUNTIF($K:$K,E119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F120" s="1">
+        <f>COUNTIF($K:$K,E120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="1">
+        <f>COUNTIF($K:$K,E121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L122" s="1">
+        <f>COUNTIF(E:E,K122)</f>
         <v>0</v>
       </c>
     </row>
@@ -3509,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E4D8E5-540F-4AAC-AA34-585050C0A63F}">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3536,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTIF($J$2:$J$47,E2)</f>
+        <f t="shared" ref="F2:F47" si="0">COUNTIF($J$2:$J$47,E2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="1">
-        <f>COUNTIF($J$2:$J$47,E3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="1">
-        <f>COUNTIF($J$2:$J$47,E4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3620,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="1">
-        <f>COUNTIF($J$2:$J$47,E5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3638,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="1">
-        <f>COUNTIF($J$2:$J$47,E6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3656,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1">
-        <f>COUNTIF($J$2:$J$47,E7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3674,7 @@
         <v>37</v>
       </c>
       <c r="F8" s="1">
-        <f>COUNTIF($J$2:$J$47,E8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3692,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="1">
-        <f>COUNTIF($J$2:$J$47,E9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3680,7 +3710,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1">
-        <f>COUNTIF($J$2:$J$47,E10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1">
-        <f>COUNTIF($J$2:$J$47,E11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3716,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="1">
-        <f>COUNTIF($J$2:$J$47,E12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3764,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="1">
-        <f>COUNTIF($J$2:$J$47,E13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3752,7 +3782,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="1">
-        <f>COUNTIF($J$2:$J$47,E14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +3800,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="1">
-        <f>COUNTIF($J$2:$J$47,E15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +3818,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="1">
-        <f>COUNTIF($J$2:$J$47,E16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3836,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <f>COUNTIF($J$2:$J$47,E17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="1">
-        <f>COUNTIF($J$2:$J$47,E18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3872,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="1">
-        <f>COUNTIF($J$2:$J$47,E19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3860,7 +3890,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <f>COUNTIF($J$2:$J$47,E20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3878,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1">
-        <f>COUNTIF($J$2:$J$47,E21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3896,7 +3926,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="1">
-        <f>COUNTIF($J$2:$J$47,E22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1">
-        <f>COUNTIF($J$2:$J$47,E23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3932,7 +3962,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="1">
-        <f>COUNTIF($J$2:$J$47,E24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3950,7 +3980,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="1">
-        <f>COUNTIF($J$2:$J$47,E25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3968,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="1">
-        <f>COUNTIF($J$2:$J$47,E26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3986,7 +4016,7 @@
         <v>45</v>
       </c>
       <c r="F27" s="1">
-        <f>COUNTIF($J$2:$J$47,E27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4004,7 +4034,7 @@
         <v>46</v>
       </c>
       <c r="F28" s="1">
-        <f>COUNTIF($J$2:$J$47,E28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4052,7 @@
         <v>47</v>
       </c>
       <c r="F29" s="1">
-        <f>COUNTIF($J$2:$J$47,E29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4070,7 @@
         <v>42</v>
       </c>
       <c r="F30" s="1">
-        <f>COUNTIF($J$2:$J$47,E30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +4088,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="1">
-        <f>COUNTIF($J$2:$J$47,E31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4076,7 +4106,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="1">
-        <f>COUNTIF($J$2:$J$47,E32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4094,7 +4124,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="1">
-        <f>COUNTIF($J$2:$J$47,E33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4112,7 +4142,7 @@
         <v>42</v>
       </c>
       <c r="F34" s="1">
-        <f>COUNTIF($J$2:$J$47,E34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4130,7 +4160,7 @@
         <v>45</v>
       </c>
       <c r="F35" s="1">
-        <f>COUNTIF($J$2:$J$47,E35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4178,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="1">
-        <f>COUNTIF($J$2:$J$47,E36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4166,7 +4196,7 @@
         <v>46</v>
       </c>
       <c r="F37" s="1">
-        <f>COUNTIF($J$2:$J$47,E37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4184,7 +4214,7 @@
         <v>42</v>
       </c>
       <c r="F38" s="1">
-        <f>COUNTIF($J$2:$J$47,E38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4202,7 +4232,7 @@
         <v>42</v>
       </c>
       <c r="F39" s="1">
-        <f>COUNTIF($J$2:$J$47,E39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4220,7 +4250,7 @@
         <v>51</v>
       </c>
       <c r="F40" s="1">
-        <f>COUNTIF($J$2:$J$47,E40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4238,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="F41" s="1">
-        <f>COUNTIF($J$2:$J$47,E41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4286,7 @@
         <v>42</v>
       </c>
       <c r="F42" s="1">
-        <f>COUNTIF($J$2:$J$47,E42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4274,7 +4304,7 @@
         <v>45</v>
       </c>
       <c r="F43" s="1">
-        <f>COUNTIF($J$2:$J$47,E43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4292,7 +4322,7 @@
         <v>50</v>
       </c>
       <c r="F44" s="1">
-        <f>COUNTIF($J$2:$J$47,E44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4310,7 +4340,7 @@
         <v>46</v>
       </c>
       <c r="F45" s="1">
-        <f>COUNTIF($J$2:$J$47,E45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4328,7 +4358,7 @@
         <v>42</v>
       </c>
       <c r="F46" s="1">
-        <f>COUNTIF($J$2:$J$47,E46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4346,7 +4376,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="1">
-        <f>COUNTIF($J$2:$J$47,E47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E471809B-6460-479B-890A-A138925DE18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F80BA9-E2AA-4932-99B7-609AE1B119E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="173">
   <si>
     <t>command\ReplaceStrInTxtFile.vbs</t>
   </si>
@@ -535,19 +535,23 @@
     <t>ExtractValuesFrKeys</t>
   </si>
   <si>
+    <t>Mng_SysCmd.bas</t>
+  </si>
+  <si>
+    <t>ShowCommitDialog</t>
+  </si>
+  <si>
+    <t>Mng_Vba.bas</t>
+  </si>
+  <si>
+    <t>ClearImmidiateWindow</t>
+  </si>
+  <si>
+    <t>ReplaceRelativePath</t>
+  </si>
+  <si>
     <t>ExtractRelativePath</t>
-  </si>
-  <si>
-    <t>Mng_SysCmd.bas</t>
-  </si>
-  <si>
-    <t>ShowCommitDialog</t>
-  </si>
-  <si>
-    <t>Mng_Vba.bas</t>
-  </si>
-  <si>
-    <t>ClearImmidiateWindow</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -880,26 +884,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L122"/>
+  <dimension ref="B2:L123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.75" style="1"/>
+    <col min="5" max="5" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="21.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1"/>
+    <col min="11" max="11" width="21.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
@@ -3325,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L112" s="1">
         <f>COUNTIF(E:E,K112)</f>
@@ -3333,38 +3337,38 @@
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H113" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F113" s="1">
+        <f>COUNTIF($K:$K,E113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L113" s="1">
-        <f>COUNTIF(E:E,K113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B114" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F114" s="1">
-        <f>COUNTIF($K:$K,E114)</f>
+      <c r="L114" s="1">
+        <f>COUNTIF(E:E,K114)</f>
         <v>0</v>
       </c>
     </row>
@@ -3373,13 +3377,13 @@
         <v>27</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F115" s="1">
         <f>COUNTIF($K:$K,E115)</f>
@@ -3397,7 +3401,7 @@
         <v>31</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F116" s="1">
         <f>COUNTIF($K:$K,E116)</f>
@@ -3415,32 +3419,16 @@
         <v>31</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F117" s="1">
         <f>COUNTIF($K:$K,E117)</f>
-        <v>1</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L117" s="1">
-        <f>COUNTIF(E:E,K117)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>34</v>
@@ -3449,11 +3437,27 @@
         <v>31</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F118" s="1">
         <f>COUNTIF($K:$K,E118)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L118" s="1">
+        <f>COUNTIF(E:E,K118)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.15">
@@ -3461,13 +3465,13 @@
         <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F119" s="1">
         <f>COUNTIF($K:$K,E119)</f>
@@ -3485,7 +3489,7 @@
         <v>31</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F120" s="1">
         <f>COUNTIF($K:$K,E120)</f>
@@ -3494,7 +3498,7 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>30</v>
@@ -3503,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F121" s="1">
         <f>COUNTIF($K:$K,E121)</f>
@@ -3511,20 +3515,38 @@
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H122" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" s="1">
+        <f>COUNTIF($K:$K,E122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="H123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L122" s="1">
-        <f>COUNTIF(E:E,K122)</f>
+      <c r="L123" s="1">
+        <f>COUNTIF(E:E,K123)</f>
         <v>0</v>
       </c>
     </row>
@@ -3539,20 +3561,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E4D8E5-540F-4AAC-AA34-585050C0A63F}">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="45.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3606,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3624,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3642,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3678,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3696,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3714,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3732,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3768,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -3786,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -3822,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -3858,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -3894,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3966,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -3984,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -4002,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -4020,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -4038,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -4110,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -4128,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
@@ -4164,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
@@ -4182,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
@@ -4200,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4236,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
@@ -4272,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
@@ -4290,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
@@ -4308,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
@@ -4326,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>19</v>
       </c>
@@ -4344,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="1" customFormat="1" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>

--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F80BA9-E2AA-4932-99B7-609AE1B119E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D0BB9-C229-4988-9796-24FE9F8EA4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="172">
   <si>
     <t>command\ReplaceStrInTxtFile.vbs</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>ClearImmidiateWindow</t>
-  </si>
-  <si>
-    <t>ReplaceRelativePath</t>
   </si>
   <si>
     <t>ExtractRelativePath</t>
@@ -884,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L123"/>
+  <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H97" s="1" t="s">
         <v>136</v>
       </c>
@@ -3066,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H98" s="1" t="s">
         <v>136</v>
       </c>
@@ -3084,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H99" s="1" t="s">
         <v>136</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H100" s="1" t="s">
         <v>136</v>
       </c>
@@ -3120,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H101" s="1" t="s">
         <v>136</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H102" s="1" t="s">
         <v>136</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H103" s="1" t="s">
         <v>136</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H104" s="1" t="s">
         <v>136</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H105" s="1" t="s">
         <v>136</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H106" s="1" t="s">
         <v>136</v>
       </c>
@@ -3228,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H107" s="1" t="s">
         <v>136</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H108" s="1" t="s">
         <v>136</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H109" s="1" t="s">
         <v>136</v>
       </c>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H110" s="1" t="s">
         <v>136</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.15">
       <c r="H111" s="1" t="s">
         <v>136</v>
       </c>
@@ -3318,7 +3315,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="8:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" s="1">
+        <f>COUNTIF($K:$K,E112)</f>
+        <v>1</v>
+      </c>
       <c r="H112" s="1" t="s">
         <v>136</v>
       </c>
@@ -3329,46 +3342,46 @@
         <v>31</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L112" s="1">
         <f>COUNTIF(E:E,K112)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F113" s="1">
-        <f>COUNTIF($K:$K,E113)</f>
+      <c r="H113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L113" s="1">
+        <f>COUNTIF(E:E,K113)</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H114" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L114" s="1">
-        <f>COUNTIF(E:E,K114)</f>
+      <c r="D114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="1">
+        <f>COUNTIF($K:$K,E114)</f>
         <v>0</v>
       </c>
     </row>
@@ -3377,13 +3390,13 @@
         <v>27</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F115" s="1">
         <f>COUNTIF($K:$K,E115)</f>
@@ -3401,7 +3414,7 @@
         <v>31</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F116" s="1">
         <f>COUNTIF($K:$K,E116)</f>
@@ -3419,16 +3432,32 @@
         <v>31</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F117" s="1">
         <f>COUNTIF($K:$K,E117)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L117" s="1">
+        <f>COUNTIF(E:E,K117)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>34</v>
@@ -3437,27 +3466,11 @@
         <v>31</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F118" s="1">
         <f>COUNTIF($K:$K,E118)</f>
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L118" s="1">
-        <f>COUNTIF(E:E,K118)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.15">
@@ -3465,13 +3478,13 @@
         <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F119" s="1">
         <f>COUNTIF($K:$K,E119)</f>
@@ -3489,7 +3502,7 @@
         <v>31</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F120" s="1">
         <f>COUNTIF($K:$K,E120)</f>
@@ -3498,7 +3511,7 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>30</v>
@@ -3507,7 +3520,7 @@
         <v>31</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F121" s="1">
         <f>COUNTIF($K:$K,E121)</f>
@@ -3515,38 +3528,20 @@
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F122" s="1">
-        <f>COUNTIF($K:$K,E122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="H123" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K123" s="1" t="s">
+      <c r="I122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L123" s="1">
-        <f>COUNTIF(E:E,K123)</f>
+      <c r="L122" s="1">
+        <f>COUNTIF(E:E,K122)</f>
         <v>0</v>
       </c>
     </row>
@@ -3561,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E4D8E5-540F-4AAC-AA34-585050C0A63F}">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D0BB9-C229-4988-9796-24FE9F8EA4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECA6F3-2A82-4E0D-A98E-3D8B05F4132E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -971,7 +971,7 @@
         <v>88</v>
       </c>
       <c r="L5" s="1">
-        <f>COUNTIF(E:E,K5)</f>
+        <f t="shared" ref="L5:L24" si="0">COUNTIF(E:E,K5)</f>
         <v>0</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>89</v>
       </c>
       <c r="L6" s="1">
-        <f>COUNTIF(E:E,K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>90</v>
       </c>
       <c r="L7" s="1">
-        <f>COUNTIF(E:E,K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
         <v>91</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIF(E:E,K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <v>92</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIF(E:E,K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <v>93</v>
       </c>
       <c r="L10" s="1">
-        <f>COUNTIF(E:E,K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
         <v>94</v>
       </c>
       <c r="L11" s="1">
-        <f>COUNTIF(E:E,K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
         <v>96</v>
       </c>
       <c r="L12" s="1">
-        <f>COUNTIF(E:E,K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="1">
-        <f>COUNTIF(E:E,K13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>38</v>
       </c>
       <c r="L14" s="1">
-        <f>COUNTIF(E:E,K14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>99</v>
       </c>
       <c r="L15" s="1">
-        <f>COUNTIF(E:E,K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="1">
-        <f>COUNTIF(E:E,K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
         <v>101</v>
       </c>
       <c r="L17" s="1">
-        <f>COUNTIF(E:E,K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>102</v>
       </c>
       <c r="L18" s="1">
-        <f>COUNTIF(E:E,K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
         <v>104</v>
       </c>
       <c r="L19" s="1">
-        <f>COUNTIF(E:E,K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>105</v>
       </c>
       <c r="L20" s="1">
-        <f>COUNTIF(E:E,K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="L21" s="1">
-        <f>COUNTIF(E:E,K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>108</v>
       </c>
       <c r="L22" s="1">
-        <f>COUNTIF(E:E,K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>109</v>
       </c>
       <c r="L23" s="1">
-        <f>COUNTIF(E:E,K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>110</v>
       </c>
       <c r="L24" s="1">
-        <f>COUNTIF(E:E,K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
         <v>57</v>
       </c>
       <c r="F25" s="1">
-        <f>COUNTIF($K:$K,E25)</f>
+        <f t="shared" ref="F25:F45" si="1">COUNTIF($K:$K,E25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="1">
-        <f>COUNTIF($K:$K,E26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>58</v>
       </c>
       <c r="F27" s="1">
-        <f>COUNTIF($K:$K,E27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="1">
-        <f>COUNTIF(E:E,K27)</f>
+        <f t="shared" ref="L27:L38" si="2">COUNTIF(E:E,K27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="1">
-        <f>COUNTIF($K:$K,E28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1465,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="L28" s="1">
-        <f>COUNTIF(E:E,K28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="1">
-        <f>COUNTIF($K:$K,E29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1499,7 +1499,7 @@
         <v>122</v>
       </c>
       <c r="L29" s="1">
-        <f>COUNTIF(E:E,K29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="1">
-        <f>COUNTIF($K:$K,E30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1533,7 +1533,7 @@
         <v>60</v>
       </c>
       <c r="L30" s="1">
-        <f>COUNTIF(E:E,K30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="1">
-        <f>COUNTIF($K:$K,E31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1567,7 +1567,7 @@
         <v>48</v>
       </c>
       <c r="L31" s="1">
-        <f>COUNTIF(E:E,K31)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>62</v>
       </c>
       <c r="F32" s="1">
-        <f>COUNTIF($K:$K,E32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1601,7 +1601,7 @@
         <v>62</v>
       </c>
       <c r="L32" s="1">
-        <f>COUNTIF(E:E,K32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1">
-        <f>COUNTIF($K:$K,E33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1635,7 +1635,7 @@
         <v>63</v>
       </c>
       <c r="L33" s="1">
-        <f>COUNTIF(E:E,K33)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="1">
-        <f>COUNTIF($K:$K,E34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1669,7 +1669,7 @@
         <v>70</v>
       </c>
       <c r="L34" s="1">
-        <f>COUNTIF(E:E,K34)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="F35" s="1">
-        <f>COUNTIF($K:$K,E35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1703,7 +1703,7 @@
         <v>36</v>
       </c>
       <c r="L35" s="1">
-        <f>COUNTIF(E:E,K35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>36</v>
       </c>
       <c r="F36" s="1">
-        <f>COUNTIF($K:$K,E36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1737,7 +1737,7 @@
         <v>40</v>
       </c>
       <c r="L36" s="1">
-        <f>COUNTIF(E:E,K36)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="F37" s="1">
-        <f>COUNTIF($K:$K,E37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1771,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="L37" s="1">
-        <f>COUNTIF(E:E,K37)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="1">
-        <f>COUNTIF($K:$K,E38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1805,7 +1805,7 @@
         <v>44</v>
       </c>
       <c r="L38" s="1">
-        <f>COUNTIF(E:E,K38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>61</v>
       </c>
       <c r="F39" s="1">
-        <f>COUNTIF($K:$K,E39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
         <v>64</v>
       </c>
       <c r="F40" s="1">
-        <f>COUNTIF($K:$K,E40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="1">
-        <f>COUNTIF($K:$K,E41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="1">
-        <f>COUNTIF($K:$K,E42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="1">
-        <f>COUNTIF($K:$K,E43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>71</v>
       </c>
       <c r="F44" s="1">
-        <f>COUNTIF($K:$K,E44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>73</v>
       </c>
       <c r="F45" s="1">
-        <f>COUNTIF($K:$K,E45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>121</v>
       </c>
       <c r="L46" s="1">
-        <f>COUNTIF(E:E,K46)</f>
+        <f t="shared" ref="L46:L51" si="3">COUNTIF(E:E,K46)</f>
         <v>0</v>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>94</v>
       </c>
       <c r="L47" s="1">
-        <f>COUNTIF(E:E,K47)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
         <v>45</v>
       </c>
       <c r="L48" s="1">
-        <f>COUNTIF(E:E,K48)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         <v>46</v>
       </c>
       <c r="L49" s="1">
-        <f>COUNTIF(E:E,K49)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
         <v>67</v>
       </c>
       <c r="L50" s="1">
-        <f>COUNTIF(E:E,K50)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="1">
-        <f>COUNTIF(E:E,K51)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
         <v>112</v>
       </c>
       <c r="L53" s="1">
-        <f>COUNTIF(E:E,K53)</f>
+        <f t="shared" ref="L53:L78" si="4">COUNTIF(E:E,K53)</f>
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
         <v>113</v>
       </c>
       <c r="L54" s="1">
-        <f>COUNTIF(E:E,K54)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         <v>114</v>
       </c>
       <c r="L55" s="1">
-        <f>COUNTIF(E:E,K55)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>115</v>
       </c>
       <c r="L56" s="1">
-        <f>COUNTIF(E:E,K56)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
         <v>116</v>
       </c>
       <c r="L57" s="1">
-        <f>COUNTIF(E:E,K57)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
         <v>117</v>
       </c>
       <c r="L58" s="1">
-        <f>COUNTIF(E:E,K58)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>118</v>
       </c>
       <c r="L59" s="1">
-        <f>COUNTIF(E:E,K59)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
         <v>119</v>
       </c>
       <c r="L60" s="1">
-        <f>COUNTIF(E:E,K60)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>124</v>
       </c>
       <c r="L61" s="1">
-        <f>COUNTIF(E:E,K61)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
         <v>125</v>
       </c>
       <c r="L62" s="1">
-        <f>COUNTIF(E:E,K62)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
         <v>126</v>
       </c>
       <c r="L63" s="1">
-        <f>COUNTIF(E:E,K63)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>127</v>
       </c>
       <c r="L64" s="1">
-        <f>COUNTIF(E:E,K64)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
         <v>128</v>
       </c>
       <c r="L65" s="1">
-        <f>COUNTIF(E:E,K65)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
         <v>129</v>
       </c>
       <c r="L66" s="1">
-        <f>COUNTIF(E:E,K66)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
         <v>130</v>
       </c>
       <c r="L67" s="1">
-        <f>COUNTIF(E:E,K67)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
         <v>132</v>
       </c>
       <c r="L68" s="1">
-        <f>COUNTIF(E:E,K68)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>134</v>
       </c>
       <c r="L69" s="1">
-        <f>COUNTIF(E:E,K69)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         <v>135</v>
       </c>
       <c r="L70" s="1">
-        <f>COUNTIF(E:E,K70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>43</v>
       </c>
       <c r="F71" s="1">
-        <f>COUNTIF($K:$K,E71)</f>
+        <f t="shared" ref="F71:F79" si="5">COUNTIF($K:$K,E71)</f>
         <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -2479,7 +2479,7 @@
         <v>43</v>
       </c>
       <c r="L71" s="1">
-        <f>COUNTIF(E:E,K71)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
         <v>74</v>
       </c>
       <c r="F72" s="1">
-        <f>COUNTIF($K:$K,E72)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -2513,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="L72" s="1">
-        <f>COUNTIF(E:E,K72)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>75</v>
       </c>
       <c r="F73" s="1">
-        <f>COUNTIF($K:$K,E73)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -2547,7 +2547,7 @@
         <v>75</v>
       </c>
       <c r="L73" s="1">
-        <f>COUNTIF(E:E,K73)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
         <v>76</v>
       </c>
       <c r="F74" s="1">
-        <f>COUNTIF($K:$K,E74)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -2581,7 +2581,7 @@
         <v>76</v>
       </c>
       <c r="L74" s="1">
-        <f>COUNTIF(E:E,K74)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>77</v>
       </c>
       <c r="F75" s="1">
-        <f>COUNTIF($K:$K,E75)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -2615,7 +2615,7 @@
         <v>77</v>
       </c>
       <c r="L75" s="1">
-        <f>COUNTIF(E:E,K75)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>78</v>
       </c>
       <c r="F76" s="1">
-        <f>COUNTIF($K:$K,E76)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -2649,7 +2649,7 @@
         <v>78</v>
       </c>
       <c r="L76" s="1">
-        <f>COUNTIF(E:E,K76)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>79</v>
       </c>
       <c r="F77" s="1">
-        <f>COUNTIF($K:$K,E77)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2683,7 +2683,7 @@
         <v>79</v>
       </c>
       <c r="L77" s="1">
-        <f>COUNTIF(E:E,K77)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="1">
-        <f>COUNTIF($K:$K,E78)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -2717,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="L78" s="1">
-        <f>COUNTIF(E:E,K78)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
         <v>51</v>
       </c>
       <c r="F79" s="1">
-        <f>COUNTIF($K:$K,E79)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
         <v>137</v>
       </c>
       <c r="L80" s="1">
-        <f>COUNTIF(E:E,K80)</f>
+        <f t="shared" ref="L80:L113" si="6">COUNTIF(E:E,K80)</f>
         <v>0</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>138</v>
       </c>
       <c r="L81" s="1">
-        <f>COUNTIF(E:E,K81)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>139</v>
       </c>
       <c r="L82" s="1">
-        <f>COUNTIF(E:E,K82)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
         <v>140</v>
       </c>
       <c r="L83" s="1">
-        <f>COUNTIF(E:E,K83)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>141</v>
       </c>
       <c r="L84" s="1">
-        <f>COUNTIF(E:E,K84)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>142</v>
       </c>
       <c r="L85" s="1">
-        <f>COUNTIF(E:E,K85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>143</v>
       </c>
       <c r="L86" s="1">
-        <f>COUNTIF(E:E,K86)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
         <v>144</v>
       </c>
       <c r="L87" s="1">
-        <f>COUNTIF(E:E,K87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>145</v>
       </c>
       <c r="L88" s="1">
-        <f>COUNTIF(E:E,K88)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>146</v>
       </c>
       <c r="L89" s="1">
-        <f>COUNTIF(E:E,K89)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
         <v>147</v>
       </c>
       <c r="L90" s="1">
-        <f>COUNTIF(E:E,K90)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
         <v>148</v>
       </c>
       <c r="L91" s="1">
-        <f>COUNTIF(E:E,K91)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
         <v>149</v>
       </c>
       <c r="L92" s="1">
-        <f>COUNTIF(E:E,K92)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>150</v>
       </c>
       <c r="L93" s="1">
-        <f>COUNTIF(E:E,K93)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
         <v>151</v>
       </c>
       <c r="L94" s="1">
-        <f>COUNTIF(E:E,K94)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
         <v>152</v>
       </c>
       <c r="L95" s="1">
-        <f>COUNTIF(E:E,K95)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
         <v>153</v>
       </c>
       <c r="L96" s="1">
-        <f>COUNTIF(E:E,K96)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
         <v>154</v>
       </c>
       <c r="L97" s="1">
-        <f>COUNTIF(E:E,K97)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
         <v>155</v>
       </c>
       <c r="L98" s="1">
-        <f>COUNTIF(E:E,K98)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
         <v>156</v>
       </c>
       <c r="L99" s="1">
-        <f>COUNTIF(E:E,K99)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
         <v>157</v>
       </c>
       <c r="L100" s="1">
-        <f>COUNTIF(E:E,K100)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>158</v>
       </c>
       <c r="L101" s="1">
-        <f>COUNTIF(E:E,K101)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
         <v>159</v>
       </c>
       <c r="L102" s="1">
-        <f>COUNTIF(E:E,K102)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
         <v>160</v>
       </c>
       <c r="L103" s="1">
-        <f>COUNTIF(E:E,K103)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
         <v>161</v>
       </c>
       <c r="L104" s="1">
-        <f>COUNTIF(E:E,K104)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
         <v>162</v>
       </c>
       <c r="L105" s="1">
-        <f>COUNTIF(E:E,K105)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>163</v>
       </c>
       <c r="L106" s="1">
-        <f>COUNTIF(E:E,K106)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
         <v>137</v>
       </c>
       <c r="L107" s="1">
-        <f>COUNTIF(E:E,K107)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
         <v>138</v>
       </c>
       <c r="L108" s="1">
-        <f>COUNTIF(E:E,K108)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
         <v>164</v>
       </c>
       <c r="L109" s="1">
-        <f>COUNTIF(E:E,K109)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>165</v>
       </c>
       <c r="L110" s="1">
-        <f>COUNTIF(E:E,K110)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
         <v>166</v>
       </c>
       <c r="L111" s="1">
-        <f>COUNTIF(E:E,K111)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
         <v>171</v>
       </c>
       <c r="L112" s="1">
-        <f>COUNTIF(E:E,K112)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         <v>168</v>
       </c>
       <c r="L113" s="1">
-        <f>COUNTIF(E:E,K113)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
         <v>80</v>
       </c>
       <c r="F114" s="1">
-        <f>COUNTIF($K:$K,E114)</f>
+        <f t="shared" ref="F114:F121" si="7">COUNTIF($K:$K,E114)</f>
         <v>0</v>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
         <v>81</v>
       </c>
       <c r="F115" s="1">
-        <f>COUNTIF($K:$K,E115)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>82</v>
       </c>
       <c r="F116" s="1">
-        <f>COUNTIF($K:$K,E116)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
         <v>83</v>
       </c>
       <c r="F117" s="1">
-        <f>COUNTIF($K:$K,E117)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -3469,7 +3469,7 @@
         <v>84</v>
       </c>
       <c r="F118" s="1">
-        <f>COUNTIF($K:$K,E118)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>85</v>
       </c>
       <c r="F119" s="1">
-        <f>COUNTIF($K:$K,E119)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>86</v>
       </c>
       <c r="F120" s="1">
-        <f>COUNTIF($K:$K,E120)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
         <v>32</v>
       </c>
       <c r="F121" s="1">
-        <f>COUNTIF($K:$K,E121)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3556,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E4D8E5-540F-4AAC-AA34-585050C0A63F}">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBECA6F3-2A82-4E0D-A98E-3D8B05F4132E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F864DB1-69F4-44C2-A05F-0D1775C903B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/vbs/関数一覧.xlsx
+++ b/vbs/関数一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\vbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F864DB1-69F4-44C2-A05F-0D1775C903B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE23D386-9792-4110-A785-DA678E93A0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="174">
   <si>
     <t>command\ReplaceStrInTxtFile.vbs</t>
   </si>
@@ -548,6 +542,14 @@
   </si>
   <si>
     <t>ExtractRelativePath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetFolderNotExistPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,12 +580,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -598,9 +606,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -883,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -894,7 +903,7 @@
     <col min="3" max="4" width="8.75" style="1"/>
     <col min="5" max="5" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1"/>
@@ -920,6 +929,10 @@
         <f>COUNTIF($K:$K,E2)</f>
         <v>0</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -938,6 +951,10 @@
         <f>COUNTIF($K:$K,E3)</f>
         <v>0</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -956,8 +973,16 @@
         <f>COUNTIF($K:$K,E4)</f>
         <v>0</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
@@ -971,11 +996,15 @@
         <v>88</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L24" si="0">COUNTIF(E:E,K5)</f>
+        <f>COUNTIF(E:E,K5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="H6" s="1" t="s">
         <v>87</v>
       </c>
@@ -989,11 +1018,15 @@
         <v>89</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="H7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1007,11 +1040,15 @@
         <v>90</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="H8" s="1" t="s">
         <v>87</v>
       </c>
@@ -1025,11 +1062,15 @@
         <v>91</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="H9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1043,11 +1084,15 @@
         <v>92</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="H10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1061,11 +1106,15 @@
         <v>93</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="H11" s="1" t="s">
         <v>87</v>
       </c>
@@ -1079,11 +1128,15 @@
         <v>94</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="H12" s="1" t="s">
         <v>95</v>
       </c>
@@ -1097,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K12)</f>
         <v>0</v>
       </c>
     </row>
@@ -1131,7 +1184,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K13)</f>
         <v>1</v>
       </c>
     </row>
@@ -1165,11 +1218,15 @@
         <v>38</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="H15" s="1" t="s">
         <v>98</v>
       </c>
@@ -1183,11 +1240,15 @@
         <v>99</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="H16" s="1" t="s">
         <v>98</v>
       </c>
@@ -1201,11 +1262,15 @@
         <v>100</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="H17" s="1" t="s">
         <v>98</v>
       </c>
@@ -1219,11 +1284,15 @@
         <v>101</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="H18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1237,11 +1306,15 @@
         <v>102</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="H19" s="1" t="s">
         <v>103</v>
       </c>
@@ -1255,11 +1328,15 @@
         <v>104</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="H20" s="1" t="s">
         <v>103</v>
       </c>
@@ -1273,11 +1350,15 @@
         <v>105</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="H21" s="1" t="s">
         <v>103</v>
       </c>
@@ -1291,7 +1372,7 @@
         <v>106</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K21)</f>
         <v>0</v>
       </c>
     </row>
@@ -1325,11 +1406,15 @@
         <v>108</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="H23" s="1" t="s">
         <v>107</v>
       </c>
@@ -1343,11 +1428,15 @@
         <v>109</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="H24" s="1" t="s">
         <v>107</v>
       </c>
@@ -1361,7 +1450,7 @@
         <v>110</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E:E,K24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1379,9 +1468,13 @@
         <v>57</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25:F45" si="1">COUNTIF($K:$K,E25)</f>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
@@ -1397,8 +1490,20 @@
         <v>55</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNTIF($K:$K,E26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
@@ -1415,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E27)</f>
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1431,7 +1536,7 @@
         <v>58</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" ref="L27:L38" si="2">COUNTIF(E:E,K27)</f>
+        <f>COUNTIF(E:E,K27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1449,7 +1554,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E28)</f>
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -1465,7 +1570,7 @@
         <v>59</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K28)</f>
         <v>1</v>
       </c>
     </row>
@@ -1483,7 +1588,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E29)</f>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -1499,7 +1604,7 @@
         <v>122</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1517,7 +1622,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E30)</f>
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -1533,7 +1638,7 @@
         <v>60</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1551,7 +1656,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E31)</f>
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1567,7 +1672,7 @@
         <v>48</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K31)</f>
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1690,7 @@
         <v>62</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E32)</f>
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -1601,7 +1706,7 @@
         <v>62</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K32)</f>
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1724,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E33)</f>
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -1635,7 +1740,7 @@
         <v>63</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K33)</f>
         <v>1</v>
       </c>
     </row>
@@ -1653,7 +1758,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E34)</f>
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -1669,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K34)</f>
         <v>1</v>
       </c>
     </row>
@@ -1684,10 +1789,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E35)</f>
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -1703,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K35)</f>
         <v>1</v>
       </c>
     </row>
@@ -1721,7 +1826,7 @@
         <v>36</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E36)</f>
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1737,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K36)</f>
         <v>1</v>
       </c>
     </row>
@@ -1755,7 +1860,7 @@
         <v>39</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E37)</f>
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -1771,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K37)</f>
         <v>1</v>
       </c>
     </row>
@@ -1789,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($K:$K,E38)</f>
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1805,7 +1910,7 @@
         <v>44</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E:E,K38)</f>
         <v>1</v>
       </c>
     </row>
@@ -1823,9 +1928,13 @@
         <v>61</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
@@ -1841,9 +1950,13 @@
         <v>64</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
@@ -1859,9 +1972,13 @@
         <v>65</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
@@ -1877,9 +1994,13 @@
         <v>50</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
@@ -1895,9 +2016,13 @@
         <v>66</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
@@ -1913,9 +2038,13 @@
         <v>71</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
@@ -1931,11 +2060,19 @@
         <v>73</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E45)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="H46" s="1" t="s">
         <v>120</v>
       </c>
@@ -1949,11 +2086,15 @@
         <v>121</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" ref="L46:L51" si="3">COUNTIF(E:E,K46)</f>
+        <f>COUNTIF(E:E,K46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="H47" s="1" t="s">
         <v>120</v>
       </c>
@@ -1967,7 +2108,7 @@
         <v>94</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E:E,K47)</f>
         <v>0</v>
       </c>
     </row>
@@ -2001,7 +2142,7 @@
         <v>45</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E:E,K48)</f>
         <v>1</v>
       </c>
     </row>
@@ -2035,7 +2176,7 @@
         <v>46</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E:E,K49)</f>
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +2210,7 @@
         <v>67</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E:E,K50)</f>
         <v>1</v>
       </c>
     </row>
@@ -2103,7 +2244,7 @@
         <v>69</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E:E,K51)</f>
         <v>1</v>
       </c>
     </row>
@@ -2124,8 +2265,16 @@
         <f>COUNTIF($K:$K,E52)</f>
         <v>0</v>
       </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="H53" s="1" t="s">
         <v>111</v>
       </c>
@@ -2139,11 +2288,15 @@
         <v>112</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" ref="L53:L78" si="4">COUNTIF(E:E,K53)</f>
+        <f>COUNTIF(E:E,K53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="H54" s="1" t="s">
         <v>111</v>
       </c>
@@ -2157,11 +2310,15 @@
         <v>113</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="H55" s="1" t="s">
         <v>111</v>
       </c>
@@ -2175,11 +2332,15 @@
         <v>114</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="H56" s="1" t="s">
         <v>111</v>
       </c>
@@ -2193,11 +2354,15 @@
         <v>115</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="H57" s="1" t="s">
         <v>111</v>
       </c>
@@ -2211,11 +2376,15 @@
         <v>116</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="H58" s="1" t="s">
         <v>111</v>
       </c>
@@ -2229,11 +2398,15 @@
         <v>117</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="H59" s="1" t="s">
         <v>111</v>
       </c>
@@ -2247,11 +2420,15 @@
         <v>118</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="H60" s="1" t="s">
         <v>111</v>
       </c>
@@ -2265,11 +2442,23 @@
         <v>119</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H61" s="1" t="s">
         <v>123</v>
       </c>
@@ -2283,11 +2472,23 @@
         <v>124</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>123</v>
       </c>
@@ -2301,11 +2502,23 @@
         <v>125</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>123</v>
       </c>
@@ -2319,11 +2532,23 @@
         <v>126</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>123</v>
       </c>
@@ -2337,11 +2562,23 @@
         <v>127</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>123</v>
       </c>
@@ -2355,11 +2592,23 @@
         <v>128</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>123</v>
       </c>
@@ -2373,11 +2622,23 @@
         <v>129</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>123</v>
       </c>
@@ -2391,11 +2652,15 @@
         <v>130</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
       <c r="H68" s="1" t="s">
         <v>131</v>
       </c>
@@ -2409,11 +2674,15 @@
         <v>132</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K68)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="H69" s="1" t="s">
         <v>133</v>
       </c>
@@ -2427,11 +2696,15 @@
         <v>134</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K69)</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="H70" s="1" t="s">
         <v>133</v>
       </c>
@@ -2445,7 +2718,7 @@
         <v>135</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K70)</f>
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2736,7 @@
         <v>43</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ref="F71:F79" si="5">COUNTIF($K:$K,E71)</f>
+        <f>COUNTIF($K:$K,E71)</f>
         <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -2479,7 +2752,7 @@
         <v>43</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K71)</f>
         <v>1</v>
       </c>
     </row>
@@ -2497,7 +2770,7 @@
         <v>74</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E72)</f>
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -2513,7 +2786,7 @@
         <v>74</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K72)</f>
         <v>1</v>
       </c>
     </row>
@@ -2531,7 +2804,7 @@
         <v>75</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E73)</f>
         <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -2547,7 +2820,7 @@
         <v>75</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K73)</f>
         <v>1</v>
       </c>
     </row>
@@ -2565,7 +2838,7 @@
         <v>76</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E74)</f>
         <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -2581,7 +2854,7 @@
         <v>76</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K74)</f>
         <v>1</v>
       </c>
     </row>
@@ -2599,7 +2872,7 @@
         <v>77</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E75)</f>
         <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -2615,7 +2888,7 @@
         <v>77</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K75)</f>
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +2906,7 @@
         <v>78</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E76)</f>
         <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -2649,7 +2922,7 @@
         <v>78</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K76)</f>
         <v>1</v>
       </c>
     </row>
@@ -2667,7 +2940,7 @@
         <v>79</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E77)</f>
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -2683,7 +2956,7 @@
         <v>79</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K77)</f>
         <v>1</v>
       </c>
     </row>
@@ -2701,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="5"/>
+        <f>COUNTIF($K:$K,E78)</f>
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -2717,7 +2990,7 @@
         <v>42</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(E:E,K78)</f>
         <v>1</v>
       </c>
     </row>
@@ -2735,11 +3008,19 @@
         <v>51</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f>COUNTIF($K:$K,E79)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
       <c r="H80" s="1" t="s">
         <v>136</v>
       </c>
@@ -2753,11 +3034,15 @@
         <v>137</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" ref="L80:L113" si="6">COUNTIF(E:E,K80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
       <c r="H81" s="1" t="s">
         <v>136</v>
       </c>
@@ -2771,11 +3056,15 @@
         <v>138</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
       <c r="H82" s="1" t="s">
         <v>136</v>
       </c>
@@ -2789,11 +3078,15 @@
         <v>139</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="H83" s="1" t="s">
         <v>136</v>
       </c>
@@ -2807,11 +3100,15 @@
         <v>140</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
       <c r="H84" s="1" t="s">
         <v>136</v>
       </c>
@@ -2825,11 +3122,15 @@
         <v>141</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="H85" s="1" t="s">
         <v>136</v>
       </c>
@@ -2843,11 +3144,15 @@
         <v>142</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
       <c r="H86" s="1" t="s">
         <v>136</v>
       </c>
@@ -2861,11 +3166,15 @@
         <v>143</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
       <c r="H87" s="1" t="s">
         <v>136</v>
       </c>
@@ -2879,11 +3188,15 @@
         <v>144</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
       <c r="H88" s="1" t="s">
         <v>136</v>
       </c>
@@ -2897,11 +3210,15 @@
         <v>145</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
       <c r="H89" s="1" t="s">
         <v>136</v>
       </c>
@@ -2915,11 +3232,15 @@
         <v>146</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
       <c r="H90" s="1" t="s">
         <v>136</v>
       </c>
@@ -2933,11 +3254,15 @@
         <v>147</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
       <c r="H91" s="1" t="s">
         <v>136</v>
       </c>
@@ -2951,11 +3276,15 @@
         <v>148</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
       <c r="H92" s="1" t="s">
         <v>136</v>
       </c>
@@ -2969,11 +3298,15 @@
         <v>149</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
       <c r="H93" s="1" t="s">
         <v>136</v>
       </c>
@@ -2987,11 +3320,15 @@
         <v>150</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
       <c r="H94" s="1" t="s">
         <v>136</v>
       </c>
@@ -3005,11 +3342,15 @@
         <v>151</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="H95" s="1" t="s">
         <v>136</v>
       </c>
@@ -3023,11 +3364,15 @@
         <v>152</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="8:12" x14ac:dyDescent="0.15">
+        <f>COUNTIF(E:E,K95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
       <c r="H96" s="1" t="s">
         <v>136</v>
       </c>
@@ -3041,11 +3386,15 @@
         <v>153</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="H97" s="1" t="s">
         <v>136</v>
       </c>
@@ -3059,11 +3408,15 @@
         <v>154</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
       <c r="H98" s="1" t="s">
         <v>136</v>
       </c>
@@ -3077,11 +3430,15 @@
         <v>155</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K98)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
       <c r="H99" s="1" t="s">
         <v>136</v>
       </c>
@@ -3095,11 +3452,15 @@
         <v>156</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K99)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
       <c r="H100" s="1" t="s">
         <v>136</v>
       </c>
@@ -3113,11 +3474,15 @@
         <v>157</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
       <c r="H101" s="1" t="s">
         <v>136</v>
       </c>
@@ -3131,11 +3496,15 @@
         <v>158</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K101)</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
       <c r="H102" s="1" t="s">
         <v>136</v>
       </c>
@@ -3149,11 +3518,15 @@
         <v>159</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K102)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
       <c r="H103" s="1" t="s">
         <v>136</v>
       </c>
@@ -3167,11 +3540,15 @@
         <v>160</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K103)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
       <c r="H104" s="1" t="s">
         <v>136</v>
       </c>
@@ -3185,11 +3562,15 @@
         <v>161</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K104)</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
       <c r="H105" s="1" t="s">
         <v>136</v>
       </c>
@@ -3203,11 +3584,15 @@
         <v>162</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K105)</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
       <c r="H106" s="1" t="s">
         <v>136</v>
       </c>
@@ -3221,11 +3606,15 @@
         <v>163</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K106)</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
       <c r="H107" s="1" t="s">
         <v>136</v>
       </c>
@@ -3239,11 +3628,15 @@
         <v>137</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
       <c r="H108" s="1" t="s">
         <v>136</v>
       </c>
@@ -3257,11 +3650,15 @@
         <v>138</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
       <c r="H109" s="1" t="s">
         <v>136</v>
       </c>
@@ -3275,11 +3672,15 @@
         <v>164</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K109)</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
       <c r="H110" s="1" t="s">
         <v>136</v>
       </c>
@@ -3293,11 +3694,15 @@
         <v>165</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K110)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
       <c r="H111" s="1" t="s">
         <v>136</v>
       </c>
@@ -3311,7 +3716,7 @@
         <v>166</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K111)</f>
         <v>0</v>
       </c>
     </row>
@@ -3345,11 +3750,15 @@
         <v>171</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K112)</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
       <c r="H113" s="1" t="s">
         <v>167</v>
       </c>
@@ -3363,7 +3772,7 @@
         <v>168</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(E:E,K113)</f>
         <v>0</v>
       </c>
     </row>
@@ -3381,9 +3790,13 @@
         <v>80</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" ref="F114:F121" si="7">COUNTIF($K:$K,E114)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="F114:F121" si="0">COUNTIF($K:$K,E114)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
@@ -3399,9 +3812,13 @@
         <v>81</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
@@ -3417,9 +3834,13 @@
         <v>82</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
@@ -3435,7 +3856,7 @@
         <v>83</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H117" s="1" t="s">
@@ -3469,8 +3890,20 @@
         <v>84</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.15">
@@ -3487,8 +3920,20 @@
         <v>85</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.15">
@@ -3505,8 +3950,20 @@
         <v>86</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.15">
@@ -3523,11 +3980,35 @@
         <v>32</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H122" s="1" t="s">
         <v>169</v>
       </c>
@@ -3557,7 +4038,7 @@
   <dimension ref="B2:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
